--- a/dynamic/dados_quiz.xlsx
+++ b/dynamic/dados_quiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,6 +559,11 @@
           <t>Resultados Tratamento AVC</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Data / Hora</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -670,6 +675,7 @@
           <t>aprovado</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -781,6 +787,7 @@
           <t>reprovado</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -788,10 +795,8 @@
           <t>lucasmmatos05@gmail.com</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="B4" t="n">
+        <v>36</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -861,47 +866,166 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lucasmmatos05@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>bom</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>reprovado</t>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2024-11-01 14:48:26</t>
         </is>
       </c>
     </row>
